--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.76</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>98.98</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1623,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1745,14 +1832,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -1761,14 +1970,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -1777,13 +1986,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,171 +457,357 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+      <c r="D8" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -648,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +864,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>001304</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>建信鑫安回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>66.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0764</t>
+          <t>0.1431</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -716,32 +902,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>99.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -754,36 +940,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>012977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -792,36 +978,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -830,36 +1016,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>012978</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1053,347 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1075,101 +1601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,7 +1628,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1226,36 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001304</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信鑫安回报灵活配置混合</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.32</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1264,36 +1696,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0756</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1302,36 +1734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>98.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1340,36 +1772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1378,490 +1810,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1431</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012977</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012978</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>165310</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信沪深300指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009208</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信沪深300指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1875,144 +1853,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,252 +1215,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1431</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012977</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012978</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1120,26 +1289,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.32</t>
+          <t>66.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.1431</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1148,36 +1317,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>99.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1186,36 +1355,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>012977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1224,36 +1393,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1262,36 +1431,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>012978</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1300,6 +1469,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1393,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1601,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1847,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600015-华夏银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -616,7 +633,385 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1215,252 +1610,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1431</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012977</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012978</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1535,26 +1684,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.32</t>
+          <t>66.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.1431</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1563,36 +1712,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510760</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰上证综合ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>99.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1601,36 +1750,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>012977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1639,36 +1788,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>510290</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>南方上证380ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.99</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1677,36 +1826,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510290</t>
+          <t>012978</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方上证380ETF</t>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1715,6 +1864,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1808,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,174 +2655,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方上证380ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>